--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1241366.304588987</v>
+        <v>1273646.561708266</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484452</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6867975.6709363</v>
+        <v>6902641.958617859</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>232.3027585736902</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>43.66527150859858</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>87.64096861312211</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>357.8646409229818</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>108.6135018521723</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.1441627534537</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>304.8989047173997</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.58216279976261</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586644</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.4201062858538</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362285</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.55329631630732</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>155.5776225602619</v>
+        <v>155.5776225602612</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>130.3463188443672</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>86.91406253606236</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.6414451652554</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
-        <v>131.9969996527477</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773017</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430779</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149755</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,10 +2296,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738453</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>136.0564930767</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903168994</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.05677735225796</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054631</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>211.8406137836331</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>56.63677140718779</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>161.9991594537279</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>129.2606839525053</v>
+        <v>46.24876144512138</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3752,7 +3752,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283468</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358719</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3901,22 +3901,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>109.1426757626849</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765922</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>71.43430199953079</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4135,13 +4135,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>111.53099071758</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>82.43648595643955</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>858.3811951904154</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>420.2387223738386</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0330208868171</v>
+        <v>388.3693415886872</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>358.6350007873864</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>334.8079752369982</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>334.8079752369982</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978683</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978683</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978683</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978683</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381418</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299072</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257666</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1921.27408394455</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1920.459033395987</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1501.316569975298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1093.030446274951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547028</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816565</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978181</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400199</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067206</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245384</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>719.4668037189019</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>546.9050922021269</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>381.0270994036496</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>211.2690956543868</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>211.2690956543868</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021447</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449043</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>407.0159604160399</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>825.225842184001</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>906.2633127926232</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1348.522115950268</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1768.191365176049</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2115.698259146391</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010723</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2038.011587589178</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1759.578586842284</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1472.623078712714</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>1384.096847790368</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>1138.705093123781</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>911.2854224378891</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1829.291861345744</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1828.476810797181</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.0939808483479</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>309.5322693315729</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>143.6542765330956</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1146.724024919814</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>901.3322702532269</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.9125995673351</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>2064.697426772026</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1626.554953955449</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1190.645169129894</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>2086.95659321653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.603617826933</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293656</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687543</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,19 +5112,19 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>446.3722884888468</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
@@ -5188,13 +5188,13 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847292</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F14" t="n">
         <v>787.680751987495</v>
@@ -5270,10 +5270,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5291,37 +5291,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987276</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284816</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>456.9610485437088</v>
       </c>
       <c r="G16" t="n">
         <v>325.2981002160653</v>
@@ -5431,7 +5431,7 @@
         <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1920.631967059184</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.605562645476</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1403.213807978888</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.794137292997</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423114</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742891</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356907</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315502</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068559</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252396</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125434</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442451</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376277</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787311</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366622</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666275</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.755093412664</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493063</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818288</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132064</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924271</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516478</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304937</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466959</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2401.253465647997</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2401.253465647997</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518428</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5789,13 +5789,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176956</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755411</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008516</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,40 +5999,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.187678435286</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>917.6259669185115</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>751.7479741200341</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>581.9899703707715</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>405.2829163325277</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>239.6916413583554</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2701.823733979953</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840165</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1282.006297154274</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.404303796593</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.984633110701</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1068.769857140659</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238836</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254063</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859646</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.0677766831639</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5060651663889</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679116</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354727</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066083</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T40" t="n">
-        <v>2429.112734044803</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.679733297908</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.724225168339</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.69782075463</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.306066088043</v>
+        <v>1408.738671568552</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.886395402151</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>516.9624360939376</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601673</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033836</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834415</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410825</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981131</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814527</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773122</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526178</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710015</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855599</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096788</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.352246396441</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050119</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319656</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481272</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143111</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909812</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571935</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.4894846535076</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C43" t="n">
-        <v>615.9277731367325</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D43" t="n">
-        <v>615.9277731367325</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E43" t="n">
-        <v>505.6826461037175</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9755920654737</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654737</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558483</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138682</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724974</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724948</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245547</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>516.962436093936</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047171995</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397511</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J44" t="n">
-        <v>531.990664134033</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
         <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940402</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940402</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940402</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510708</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344104</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302699</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055756</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055756</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928794</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415727</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.2298140987273</v>
+        <v>1093.185322228297</v>
       </c>
       <c r="C46" t="n">
-        <v>693.5722477173333</v>
+        <v>920.6236107115215</v>
       </c>
       <c r="D46" t="n">
-        <v>527.6942549188559</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E46" t="n">
-        <v>527.6942549188559</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9872008806121</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064398</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
         <v>185.3959259064398</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J46" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
         <v>876.2839981849016</v>
@@ -7828,7 +7828,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S46" t="n">
         <v>2554.154217881911</v>
@@ -7840,16 +7840,16 @@
         <v>2029.841770713471</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1757.815366299763</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1512.423611633175</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177145</v>
+        <v>1285.003940947284</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>395.9942432157064</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320175</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>81.85603091780024</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457075</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265401</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287477</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294858</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>268.0111327346234</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.7831561774893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>268.0111327346224</v>
+        <v>268.0111327346231</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33.58904338006343</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>197.1718905122115</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178.3951296148033</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
-        <v>111.4236523045816</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.7661826744286</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.446659489829251</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>140.7232059832934</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.14686572942388</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>31.09722333628855</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>111.4236523045823</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>63.14631452530494</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>114.159968004824</v>
+        <v>197.1718905122079</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311981985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>58.91774794908524</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>268.0111327346237</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>185.1957776566225</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>59.30510368402727</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>81.78272691405299</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>580211.7358644246</v>
+        <v>587732.8532396564</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>580211.7358644246</v>
+        <v>592683.237922092</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>580211.7358644246</v>
+        <v>592683.237922092</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582635.505518366</v>
+        <v>582635.5055183659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582635.5055183661</v>
+        <v>582635.505518366</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590857.0591441868</v>
+        <v>607223.3896393364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607223.3896393365</v>
+        <v>607223.3896393366</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607223.3896393362</v>
+        <v>607223.3896393365</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599001.8360135156</v>
+        <v>582635.5055183661</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582635.505518366</v>
+        <v>582635.5055183659</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
+        <v>366504.8260294652</v>
+      </c>
+      <c r="F2" t="n">
         <v>366504.8260294653</v>
       </c>
-      <c r="F2" t="n">
-        <v>366504.8260294654</v>
-      </c>
       <c r="G2" t="n">
-        <v>371676.56556951</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
@@ -26344,16 +26344,16 @@
         <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.0089595356</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294652</v>
+        <v>366504.8260294653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476939</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745867</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104285095</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996304</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256754</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393298</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>173781.1624182686</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856654</v>
+        <v>65247.19221856653</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856654</v>
+        <v>65247.19221856652</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.8935570164</v>
+        <v>68000.69828933275</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933284</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>67079.99695088292</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="P4" t="n">
         <v>65247.19221856652</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696298</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024209</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.2360831979</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764749</v>
+        <v>73519.34227764751</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12738.10812290175</v>
+        <v>-44763.20296237938</v>
       </c>
       <c r="C6" t="n">
-        <v>129453.1925368082</v>
+        <v>126667.6061686559</v>
       </c>
       <c r="D6" t="n">
-        <v>129453.1925368081</v>
+        <v>157857.6411061147</v>
       </c>
       <c r="E6" t="n">
-        <v>-6616.730488786066</v>
+        <v>65926.65776834011</v>
       </c>
       <c r="F6" t="n">
-        <v>227738.2915332513</v>
+        <v>227661.7329784544</v>
       </c>
       <c r="G6" t="n">
-        <v>224256.1161694005</v>
+        <v>217301.0593029077</v>
       </c>
       <c r="H6" t="n">
-        <v>223850.056624492</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="I6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="J6" t="n">
-        <v>125238.3462594649</v>
+        <v>86837.99083939698</v>
       </c>
       <c r="K6" t="n">
-        <v>236252.8116044551</v>
+        <v>211382.6504811395</v>
       </c>
       <c r="L6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650725</v>
       </c>
       <c r="M6" t="n">
-        <v>40651.63232138747</v>
+        <v>101239.642652069</v>
       </c>
       <c r="N6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="O6" t="n">
-        <v>233405.7759254548</v>
+        <v>227661.7329784545</v>
       </c>
       <c r="P6" t="n">
-        <v>227738.2915332512</v>
+        <v>227661.7329784544</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26802,7 +26802,7 @@
         <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.29185526714</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631545</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.199708513939</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517616</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320047</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760556</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320047</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760556</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>189.7338162063685</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>387.8854154687014</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>181.6651717564493</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>1.126139642529949</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>59.44692185959779</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>124.5380926758881</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28020,13 +28020,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>33.58904338006428</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.651633095165207e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.761021455128988e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>395.9942432157064</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026808</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320175</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,13 +34863,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>81.85603091780024</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457075</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35659,16 +35659,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265401</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37230,16 +37230,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908388</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,16 +37789,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287477</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908081</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>955.8742281294858</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196806914</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
